--- a/IntlExp/OnlyFullyVaccinatedInt.xlsx
+++ b/IntlExp/OnlyFullyVaccinatedInt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\i.b.ossi\Python\IntlExp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{522AB01A-3F73-4405-8383-D822A3A4960B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29461FAD-1AB5-492A-8EE9-75078D046091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="267">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -834,7 +834,10 @@
 2=Lt Grn
 3=Yellow
 4=Orange
-0=unk</t>
+10=unk</t>
+  </si>
+  <si>
+    <t>Missing</t>
   </si>
 </sst>
 </file>
@@ -936,7 +939,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -955,6 +958,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -5876,7 +5882,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC00FF77-E0DB-4A0C-980D-F21EBA613C3D}">
   <dimension ref="A1:B5306"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
+      <selection activeCell="K229" sqref="K229"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -6057,7 +6065,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
@@ -6161,7 +6169,7 @@
         <v>19</v>
       </c>
       <c r="B35" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
@@ -6233,7 +6241,7 @@
         <v>39</v>
       </c>
       <c r="B44" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
@@ -6257,7 +6265,7 @@
         <v>203</v>
       </c>
       <c r="B47" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
@@ -6265,7 +6273,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
@@ -6321,7 +6329,7 @@
         <v>49</v>
       </c>
       <c r="B55" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
@@ -6361,7 +6369,7 @@
         <v>208</v>
       </c>
       <c r="B60" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
@@ -6425,7 +6433,7 @@
         <v>243</v>
       </c>
       <c r="B68" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
@@ -6561,7 +6569,7 @@
         <v>65</v>
       </c>
       <c r="B85" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
@@ -6721,7 +6729,7 @@
         <v>244</v>
       </c>
       <c r="B105" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
@@ -6729,7 +6737,7 @@
         <v>115</v>
       </c>
       <c r="B106" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
@@ -6793,7 +6801,7 @@
         <v>81</v>
       </c>
       <c r="B114" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
@@ -6841,7 +6849,7 @@
         <v>126</v>
       </c>
       <c r="B120" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
@@ -6865,7 +6873,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
@@ -6929,7 +6937,7 @@
         <v>74</v>
       </c>
       <c r="B131" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
@@ -6993,7 +7001,7 @@
         <v>246</v>
       </c>
       <c r="B139" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
@@ -7001,7 +7009,7 @@
         <v>161</v>
       </c>
       <c r="B140" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
@@ -7025,7 +7033,7 @@
         <v>247</v>
       </c>
       <c r="B143" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.35">
@@ -7033,7 +7041,7 @@
         <v>248</v>
       </c>
       <c r="B144" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.35">
@@ -7073,7 +7081,7 @@
         <v>157</v>
       </c>
       <c r="B149" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.35">
@@ -7081,7 +7089,7 @@
         <v>154</v>
       </c>
       <c r="B150" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.35">
@@ -7089,7 +7097,7 @@
         <v>144</v>
       </c>
       <c r="B151" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.35">
@@ -7273,7 +7281,7 @@
         <v>251</v>
       </c>
       <c r="B174" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.35">
@@ -7281,7 +7289,7 @@
         <v>252</v>
       </c>
       <c r="B175" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
@@ -7321,7 +7329,7 @@
         <v>188</v>
       </c>
       <c r="B180" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.35">
@@ -7353,7 +7361,7 @@
         <v>200</v>
       </c>
       <c r="B184" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.35">
@@ -7385,7 +7393,7 @@
         <v>192</v>
       </c>
       <c r="B188" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.35">
@@ -7433,7 +7441,7 @@
         <v>256</v>
       </c>
       <c r="B194" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.35">
@@ -7529,7 +7537,7 @@
         <v>262</v>
       </c>
       <c r="B206" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.35">
@@ -7657,7 +7665,7 @@
         <v>264</v>
       </c>
       <c r="B222" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.35">
@@ -7677,52 +7685,51 @@
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A225" s="3" t="s">
+        <v>266</v>
+      </c>
       <c r="B225" s="7">
-        <f t="shared" ref="B225" si="0">SUBTOTAL(109,B2:B224)</f>
-        <v>477</v>
+        <v>10</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A226"/>
+      <c r="A226" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="B226" s="8">
+        <v>10</v>
+      </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A227"/>
+      <c r="A227" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="B227" s="8">
+        <v>10</v>
+      </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A228" s="4">
-        <f>COUNTA(#REF!)</f>
-        <v>1</v>
+      <c r="A228" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="B228" s="8">
+        <v>10</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A229" s="4">
-        <f>COUNTIF($E$2:$E$224,1)</f>
-        <v>0</v>
-      </c>
+      <c r="A229" s="4"/>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A230" s="4">
-        <f>COUNTIF($E$2:$E$224,2)</f>
-        <v>0</v>
-      </c>
+      <c r="A230" s="4"/>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A231" s="4">
-        <f>COUNTIF($E$2:$E$224,3)</f>
-        <v>0</v>
-      </c>
+      <c r="A231" s="4"/>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A232" s="4">
-        <f>COUNTIF($E$2:$E$224,4)</f>
-        <v>0</v>
-      </c>
+      <c r="A232" s="4"/>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A233" s="4">
-        <f>COUNTIF($E$2:$E$224,0)</f>
-        <v>0</v>
-      </c>
+      <c r="A233" s="4"/>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A234"/>
